--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/WYOMING_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/WYOMING_2011.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Pabellon De Arteaga</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Rincon De Romos</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Bachiniva</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Balleza</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Carichi</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Dr. Belisario Dominguez</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Jimenez</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Rosales</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Satevo</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Sabinas</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Torreon</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -956,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tecoman</t>
@@ -969,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Cuencame</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Gomez Palacio</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Mapimi</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -1213,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Nuevo Ideal</t>
@@ -1226,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Peñon Blanco</t>
@@ -1239,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1252,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -1265,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1278,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1335,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -1348,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1387,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -1400,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1413,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1444,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1470,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -1574,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1587,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1618,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1631,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1644,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Zimapan</t>
@@ -1657,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1688,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Autlan De Navarro</t>
@@ -1701,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Chimaltitan</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Colotlan</t>
@@ -1740,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1753,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -1766,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -1779,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Gomez Farias</t>
@@ -1792,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1805,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Huejucar</t>
@@ -1818,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1831,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Ocotlan</t>
@@ -1844,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -1857,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Diego De Alejandria</t>
@@ -1870,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -1883,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>San Julian</t>
@@ -1896,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Sayula</t>
@@ -1909,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1922,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -1935,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -1948,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Tlajomulco De Zuñiga</t>
@@ -1961,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -1974,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Villa Purificacion</t>
@@ -1987,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2000,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Zapotlan El Grande</t>
@@ -2013,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2044,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Chimalhuacan</t>
@@ -2057,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Cuautitlan</t>
@@ -2070,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Cuautitlan Izcalli</t>
@@ -2083,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2096,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ecatzingo</t>
@@ -2109,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -2122,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -2135,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -2148,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -2161,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -2174,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Nicolas Romero</t>
@@ -2187,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2200,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2213,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Tianguistenco</t>
@@ -2226,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2239,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2252,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Tultitlan</t>
@@ -2265,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -2278,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2309,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -2322,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -2335,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Caracuaro</t>
@@ -2348,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -2361,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -2374,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Ixtlan</t>
@@ -2387,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2400,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -2413,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2426,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Nocupetaro</t>
@@ -2439,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Patzcuaro</t>
@@ -2452,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Periban</t>
@@ -2465,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -2478,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Tancitaro</t>
@@ -2491,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Tanhuato</t>
@@ -2504,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -2517,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Tinguindin</t>
@@ -2530,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2543,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Yurecuaro</t>
@@ -2556,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -2569,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2582,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -2595,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2626,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2657,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Ruiz</t>
@@ -2670,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Santa Maria Del Oro</t>
@@ -2683,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -2696,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2709,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2740,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2771,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Ixtlan De Juarez</t>
@@ -2784,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -2797,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -2810,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Ocotlan De Morelos</t>
@@ -2823,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>San Pablo Cuatro Venados</t>
@@ -2836,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Santa Cruz Itundujia</t>
@@ -2849,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Santa Maria Jacatepec</t>
@@ -2862,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2893,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -2906,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -2919,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlan</t>
@@ -2932,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Pahuatlan</t>
@@ -2945,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2958,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -2971,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -2984,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Tepexi De Rodriguez</t>
@@ -2997,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -3010,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -3023,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -3036,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Zihuateutla</t>
@@ -3049,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Zongozotla</t>
@@ -3062,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3093,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>San Juan Del Rio</t>
@@ -3106,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3137,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -3150,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -3163,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Santa Maria Del Rio</t>
@@ -3176,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -3189,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Tamuin</t>
@@ -3202,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3233,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -3246,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Cosala</t>
@@ -3259,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -3272,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3303,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -3316,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -3329,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -3342,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -3355,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -3368,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3399,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3430,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -3443,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -3456,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -3469,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Rio Bravo</t>
@@ -3482,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3513,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Apizaco</t>
@@ -3526,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Atlangatepec</t>
@@ -3539,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -3552,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -3565,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Españita</t>
@@ -3578,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -3591,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -3604,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -3617,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>San Lucas Tecopilco</t>
@@ -3630,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Santa Cruz Tlaxcala</t>
@@ -3643,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizabal</t>
@@ -3656,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3669,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -3682,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -3695,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -3708,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3739,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -3752,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -3765,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -3778,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Tenochtitlan</t>
@@ -3791,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -3804,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -3817,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -3830,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3861,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3892,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -3905,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -3918,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -3931,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -3944,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Nochistlan De Mejia</t>
@@ -3957,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -3970,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -3983,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tlaltenango De Sanchez Roman</t>
@@ -3996,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -4009,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -4022,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Total</t>
